--- a/mosqito/tests/roughness/data/Test_fc_2000.xlsx
+++ b/mosqito/tests/roughness/data/Test_fc_2000.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\Salomé\MoSQITo_oo\mosqito\tests\roughness\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\Salomé\MoSQIToGUI\mosqito\tests\roughness\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A20FA46-5BC0-41D5-996A-1226A1CD2CE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C782830-52E6-4296-A22E-BC945F8D6626}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1CC17001-C0E0-4BE5-A7B8-B53FC27517AD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve">Roughness calculation according to Daniel and Weber method </t>
   </si>
@@ -51,118 +51,160 @@
     <t>E. Zwicker, H. Fast!: Psychoacoustics. Springer, Berlin, Heidelberg, 1990</t>
   </si>
   <si>
-    <t>13.9677725</t>
-  </si>
-  <si>
-    <t>33.06127</t>
-  </si>
-  <si>
-    <t>36.69399</t>
-  </si>
-  <si>
-    <t>39.301155</t>
-  </si>
-  <si>
-    <t>42.205845</t>
-  </si>
-  <si>
-    <t>47.744553</t>
-  </si>
-  <si>
-    <t>51.269417</t>
-  </si>
-  <si>
-    <t>55.35219</t>
-  </si>
-  <si>
-    <t>57.828938</t>
-  </si>
-  <si>
-    <t>66.11581</t>
-  </si>
-  <si>
-    <t>70.39776</t>
-  </si>
-  <si>
-    <t>74.5435</t>
-  </si>
-  <si>
-    <t>78.92999</t>
-  </si>
-  <si>
-    <t>83.57281</t>
-  </si>
-  <si>
-    <t>88.24381</t>
-  </si>
-  <si>
-    <t>93.42141</t>
-  </si>
-  <si>
-    <t>98.63544</t>
-  </si>
-  <si>
-    <t>112.03673</t>
-  </si>
-  <si>
-    <t>325.9633</t>
-  </si>
-  <si>
-    <t>0.121363305</t>
-  </si>
-  <si>
-    <t>0.42317444</t>
-  </si>
-  <si>
-    <t>0.4895946</t>
-  </si>
-  <si>
-    <t>0.54656345</t>
-  </si>
-  <si>
-    <t>0.60013855</t>
-  </si>
-  <si>
-    <t>0.6866627</t>
-  </si>
-  <si>
-    <t>0.73955077</t>
-  </si>
-  <si>
-    <t>0.7834202</t>
-  </si>
-  <si>
-    <t>0.80741674</t>
-  </si>
-  <si>
-    <t>0.8551165</t>
-  </si>
-  <si>
-    <t>0.85490245</t>
-  </si>
-  <si>
-    <t>0.8383608</t>
-  </si>
-  <si>
-    <t>0.81311715</t>
-  </si>
-  <si>
-    <t>0.78429455</t>
-  </si>
-  <si>
-    <t>0.7482001</t>
-  </si>
-  <si>
-    <t>0.69625634</t>
-  </si>
-  <si>
-    <t>0.6515104</t>
-  </si>
-  <si>
-    <t>0.525111</t>
-  </si>
-  <si>
-    <t>0.08607212</t>
+    <t>14.026899</t>
+  </si>
+  <si>
+    <t>16.03378</t>
+  </si>
+  <si>
+    <t>19.51608</t>
+  </si>
+  <si>
+    <t>24.1325</t>
+  </si>
+  <si>
+    <t>27.152908</t>
+  </si>
+  <si>
+    <t>33.18282</t>
+  </si>
+  <si>
+    <t>42.67351</t>
+  </si>
+  <si>
+    <t>48.009727</t>
+  </si>
+  <si>
+    <t>51.526123</t>
+  </si>
+  <si>
+    <t>55.798893</t>
+  </si>
+  <si>
+    <t>58.02824</t>
+  </si>
+  <si>
+    <t>63.2473</t>
+  </si>
+  <si>
+    <t>68.39307</t>
+  </si>
+  <si>
+    <t>73.18517</t>
+  </si>
+  <si>
+    <t>78.91965</t>
+  </si>
+  <si>
+    <t>85.31508</t>
+  </si>
+  <si>
+    <t>94.640015</t>
+  </si>
+  <si>
+    <t>97.87623</t>
+  </si>
+  <si>
+    <t>112.84719</t>
+  </si>
+  <si>
+    <t>116.1008</t>
+  </si>
+  <si>
+    <t>134.20557</t>
+  </si>
+  <si>
+    <t>142.05911</t>
+  </si>
+  <si>
+    <t>176.54396</t>
+  </si>
+  <si>
+    <t>208.32822</t>
+  </si>
+  <si>
+    <t>247.7417</t>
+  </si>
+  <si>
+    <t>325.8978</t>
+  </si>
+  <si>
+    <t>0.120577574</t>
+  </si>
+  <si>
+    <t>0.14782797</t>
+  </si>
+  <si>
+    <t>0.1944676</t>
+  </si>
+  <si>
+    <t>0.26501298</t>
+  </si>
+  <si>
+    <t>0.31240755</t>
+  </si>
+  <si>
+    <t>0.420769</t>
+  </si>
+  <si>
+    <t>0.5939494</t>
+  </si>
+  <si>
+    <t>0.68385667</t>
+  </si>
+  <si>
+    <t>0.7424558</t>
+  </si>
+  <si>
+    <t>0.78007925</t>
+  </si>
+  <si>
+    <t>0.7985556</t>
+  </si>
+  <si>
+    <t>0.8280814</t>
+  </si>
+  <si>
+    <t>0.8409192</t>
+  </si>
+  <si>
+    <t>0.8384773</t>
+  </si>
+  <si>
+    <t>0.8165356</t>
+  </si>
+  <si>
+    <t>0.77257395</t>
+  </si>
+  <si>
+    <t>0.68996763</t>
+  </si>
+  <si>
+    <t>0.65123534</t>
+  </si>
+  <si>
+    <t>0.5195601</t>
+  </si>
+  <si>
+    <t>0.49169108</t>
+  </si>
+  <si>
+    <t>0.3902205</t>
+  </si>
+  <si>
+    <t>0.3513164</t>
+  </si>
+  <si>
+    <t>0.2457958</t>
+  </si>
+  <si>
+    <t>0.18558311</t>
+  </si>
+  <si>
+    <t>0.13721035</t>
+  </si>
+  <si>
+    <t>0.08642737</t>
   </si>
 </sst>
 </file>
@@ -520,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0A928D-C381-45F4-BCCC-3B53B3DF5CDC}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B21"/>
+      <selection activeCell="B3" sqref="B3:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -552,7 +594,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -560,7 +602,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -568,7 +610,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -576,7 +618,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -584,7 +626,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -592,7 +634,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -600,7 +642,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -608,7 +650,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -616,7 +658,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -624,7 +666,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -632,7 +674,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -640,7 +682,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -648,7 +690,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -656,7 +698,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -664,7 +706,7 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -672,7 +714,7 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -680,7 +722,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -688,7 +730,7 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -696,7 +738,63 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
